--- a/data/hotels_by_city/Houston/Houston_shard_131.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_131.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d124460-Reviews-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Willowbrook.h535366.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,456 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r529185899-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>124460</t>
+  </si>
+  <si>
+    <t>529185899</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>You have to stay at this hotel!</t>
+  </si>
+  <si>
+    <t>We had to have an extended stay because of a family medical emergency. You'll never find a motel where customer service, cleanliness, and bang for your buck is better. The breakfast buffet free and just as good as any restaurant bfast you'd want! Jessica at the front desk is AWESOME.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r488599484-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488599484</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Worn, but clean.... Will stay here again</t>
+  </si>
+  <si>
+    <t>Have stayed here twice. This hotel is a great value.  First time, the room was better than the second time, both on the first floor.  The room, linens and bathroom are very crisp and clean.  The furnishings seem a bit worn, couch has stains and is threadbare in spots.  We generally request a 1st floor room and having lived in this area for 20 years, it probably flooded in the last year or so (last really bad flood), which might account for some of the worn spots on the baseboards.  The breakfast has a good variety and the staff were friendly and helpful</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r465548850-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465548850</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Met our needs and expectations</t>
+  </si>
+  <si>
+    <t>Stayed here several nights and have no complaints. Motel itself was nice, clean with cheerful staff. The room was good, but bathtub showed wear and was in need of attention, however it was functional and clean. The signage needs some help. We arrived after dark, and the sign showing entrance was out, and only the exit sigh was lit. Entrance and exit was the same driveway, but I was not sure, and with traffic heavy and fast, I passed it on the first try, thinking there was another entrance. Had to circle back to enter. Would have had no problems in daylight though. Breakfast was adequate, but not great. Some equipment non functional, but no big deal. Several small things gave a less than great impression of the property. That said, we enjoyed our time there and would use again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Stayed here several nights and have no complaints. Motel itself was nice, clean with cheerful staff. The room was good, but bathtub showed wear and was in need of attention, however it was functional and clean. The signage needs some help. We arrived after dark, and the sign showing entrance was out, and only the exit sigh was lit. Entrance and exit was the same driveway, but I was not sure, and with traffic heavy and fast, I passed it on the first try, thinking there was another entrance. Had to circle back to enter. Would have had no problems in daylight though. Breakfast was adequate, but not great. Some equipment non functional, but no big deal. Several small things gave a less than great impression of the property. That said, we enjoyed our time there and would use again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r423608977-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423608977</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Hotel for Weekend Wedding</t>
+  </si>
+  <si>
+    <t>Very nice modern hotel.  Was convenient for the family wedding we attended. The area sure has expanded in the several years since we were last there. Lots of restaurants in the area. I would not hesitate to recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Edward Y, Manager at Comfort Suites Willowbrook, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Very nice modern hotel.  Was convenient for the family wedding we attended. The area sure has expanded in the several years since we were last there. Lots of restaurants in the area. I would not hesitate to recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r382541580-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382541580</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>Nice hotel for the price, Clean quiet rooms and friendly staff. This hotel is located around many good restaurants and a nice shopping mall.  I would stay here again and recommend this hotel to my friends and colleagues.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Edward Y, General Manager at Comfort Suites Willowbrook, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel for the price, Clean quiet rooms and friendly staff. This hotel is located around many good restaurants and a nice shopping mall.  I would stay here again and recommend this hotel to my friends and colleagues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r381970837-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381970837</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable stay!!</t>
+  </si>
+  <si>
+    <t>The grounds were well kept, the rooms were clean, the staff was helpful and friendly! The beds were very comfortable. Love all the updates going on! The property is clean and I thoroughly enjoyed my stay. I would and will be recommending this hotel to all of my friends, family and business associates! Thanks for the great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Edward Y, General Manager at Comfort Suites Willowbrook, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>The grounds were well kept, the rooms were clean, the staff was helpful and friendly! The beds were very comfortable. Love all the updates going on! The property is clean and I thoroughly enjoyed my stay. I would and will be recommending this hotel to all of my friends, family and business associates! Thanks for the great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r357416056-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357416056</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Nice. Stay</t>
+  </si>
+  <si>
+    <t>Stayed there on a visit to our niece,hotel is very easy to get to and there is a shopping center within walking distance with many restaurants to pick from. The rooms were clean and very large but the hallway could use some new carpets and better cleaning. Breakfast was very good and kept full all the timeMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Edward Y, Manager at Comfort Suites Willowbrook, responded to this reviewResponded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Stayed there on a visit to our niece,hotel is very easy to get to and there is a shopping center within walking distance with many restaurants to pick from. The rooms were clean and very large but the hallway could use some new carpets and better cleaning. Breakfast was very good and kept full all the timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r342364417-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342364417</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Great service and nice rooms</t>
+  </si>
+  <si>
+    <t>The service was great, the breakfast bar was really good, and the rooms were clean and up to date. I would definitely recommend. There was a woman that helped us make our waffles and they let our kids work on homework in the lobby area while my husband napped in the room. Everyone was very nice and it was very quiet. Only downside is we couldn't draw the curtains closed. There are sheer curtains that closed completely but the solid ones don't close completelyand it still let in light and when I sleep I like it very dark.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r324650114-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324650114</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Only had the privilege in staying for one ngt. The desk woman that checked us in was fabulous and had a great personality. She made sure our rooms &amp; any questions that we had were all taken care off. The rooms are really nice &amp; clean with the bathrooms that showed a little age but not bad.. The room &amp; bed made up for what the bathrooms was lacking for sure!! The only real thing that really could use a face lift would be the carpeting through out the place...Perhaps that is on there things to do list...The breakfast area was large and had all the items that one would want including a hand full of hot items to choose from. The price was real good for being close to the airport of DWH &amp; let's not forget all the restaurants to choose from.. If I'm in the area again, this will be my choice of hotel ..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Only had the privilege in staying for one ngt. The desk woman that checked us in was fabulous and had a great personality. She made sure our rooms &amp; any questions that we had were all taken care off. The rooms are really nice &amp; clean with the bathrooms that showed a little age but not bad.. The room &amp; bed made up for what the bathrooms was lacking for sure!! The only real thing that really could use a face lift would be the carpeting through out the place...Perhaps that is on there things to do list...The breakfast area was large and had all the items that one would want including a hand full of hot items to choose from. The price was real good for being close to the airport of DWH &amp; let's not forget all the restaurants to choose from.. If I'm in the area again, this will be my choice of hotel ..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r287376598-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287376598</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We travel frequently and this hotel is probably the best hotel that we have stayed at in this price range. Everything was exceptionally clean and there were no funky smells. I felt like I could take my shoes off and relax. The pool was clean, breakfast was the usual and the beds were comfortable and clean. We really enjoyed our stay. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r280514229-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280514229</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>not as advertised</t>
+  </si>
+  <si>
+    <t>overall experience was average.  Whirlpool tub/hot tub was not in working condition.  Desk clerk said that they must still be working on it.  The towels in the room had more holes in them than the Red Sox defense. Not what we were expecting for $150 for a night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r251179389-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251179389</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Nice and very convenient place to stay</t>
+  </si>
+  <si>
+    <t>We recently stayed here for five days while visiting family.  Everything was clean with no problems.  The suite was very large and comfortable which we enjoyed, even though we were not there much.  Liked the coffee maker that had a small coffee pot instead of the ones that brew only one cup at a time.  There are many very good restaurants close by and easy to get to as well as a convenience store.  The hotel itself was in a convenient location.We extended our stay while there and had to change rooms because the place was booked up and our room had been reserved.  They kept our luggage in the office during the day we moved rooms.  We were moved to the jacuzzi suite.  Had a large jacuzzi in the middle of the room next to the bed which was kinda unexpected.  We were not excited about having to change rooms, but we had not made reservations for the duration of our stay so can not complain too much.  Be advised though, this place does book solid sometimes so reservations may be a good idea.  The breakfast was above average for a hotel.  Changed things up a little every day.  Nothing to get excited about but we ate there every morning with no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We recently stayed here for five days while visiting family.  Everything was clean with no problems.  The suite was very large and comfortable which we enjoyed, even though we were not there much.  Liked the coffee maker that had a small coffee pot instead of the ones that brew only one cup at a time.  There are many very good restaurants close by and easy to get to as well as a convenience store.  The hotel itself was in a convenient location.We extended our stay while there and had to change rooms because the place was booked up and our room had been reserved.  They kept our luggage in the office during the day we moved rooms.  We were moved to the jacuzzi suite.  Had a large jacuzzi in the middle of the room next to the bed which was kinda unexpected.  We were not excited about having to change rooms, but we had not made reservations for the duration of our stay so can not complain too much.  Be advised though, this place does book solid sometimes so reservations may be a good idea.  The breakfast was above average for a hotel.  Changed things up a little every day.  Nothing to get excited about but we ate there every morning with no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r217669429-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217669429</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Ups and Downs</t>
+  </si>
+  <si>
+    <t>I was a bit hesitant about this hotel because some of the reviews on Tripadvisor mentioned dirt and bugs; I do not like either.  However, the hotel was booked for a conference where I was speaking, so my choice was rather non-existent.
+First of all, let me state that on arrival my room was spotless.  I checked every nook and cranny; I was totally impressed.  While the room was not fancy, it was clean and comfortable.  The bed was amazing, and I enjoyed the choice of firm and soft pillows.  There were many outlets which is often a challenge.  There was a microwave and refrigerator, too.  The shower had HOT water and there was a nice flow of water.
+On my 2nd day, I returned to a clean room... quite impressed and happy.  The 2nd night (my 3rd day) was a huge disappointment.  I was given one towel, my trash was not emptied, and my sheets were basically just thrown together.  There was a huge difference is the appearance and the incidentals this night.  This inconsistency bothers me a lot.  
+Another inconsistency, for me, were the front desk individuals.  While they responded to my questions and offered great directions, they never smiled or noticed me on arrival or departure.  They were too busy.  One girl was busy texting, and the guy just never looked up.  The young man, however, who was working the last evening of my trip was amazing......I was a bit hesitant about this hotel because some of the reviews on Tripadvisor mentioned dirt and bugs; I do not like either.  However, the hotel was booked for a conference where I was speaking, so my choice was rather non-existent.First of all, let me state that on arrival my room was spotless.  I checked every nook and cranny; I was totally impressed.  While the room was not fancy, it was clean and comfortable.  The bed was amazing, and I enjoyed the choice of firm and soft pillows.  There were many outlets which is often a challenge.  There was a microwave and refrigerator, too.  The shower had HOT water and there was a nice flow of water.On my 2nd day, I returned to a clean room... quite impressed and happy.  The 2nd night (my 3rd day) was a huge disappointment.  I was given one towel, my trash was not emptied, and my sheets were basically just thrown together.  There was a huge difference is the appearance and the incidentals this night.  This inconsistency bothers me a lot.  Another inconsistency, for me, were the front desk individuals.  While they responded to my questions and offered great directions, they never smiled or noticed me on arrival or departure.  They were too busy.  One girl was busy texting, and the guy just never looked up.  The young man, however, who was working the last evening of my trip was amazing... gave great directions... and honestly helped me locate the mall and print my boarding pass.  All the staff should be as accommodating... kudos to you!I did not partake of the breakfast, because when I arrived, it was quite crowded.  It's a super small area.  I have no idea what was offered, but the room was crowded.There are LOTS of restaurants within a few blocks... many choices!Do not depend on Wi-Fi, which is free.  It was more trouble than it was worth.  Super slow.I travel all the time, and it's the little things that make me want to return.  With so many choices for travelers, taking out trash, leaving towels, and a smile are not a lot of ask for.  Would I return, yes!  But I would check the room for towels and stuff before going to bed; no surprises in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I was a bit hesitant about this hotel because some of the reviews on Tripadvisor mentioned dirt and bugs; I do not like either.  However, the hotel was booked for a conference where I was speaking, so my choice was rather non-existent.
+First of all, let me state that on arrival my room was spotless.  I checked every nook and cranny; I was totally impressed.  While the room was not fancy, it was clean and comfortable.  The bed was amazing, and I enjoyed the choice of firm and soft pillows.  There were many outlets which is often a challenge.  There was a microwave and refrigerator, too.  The shower had HOT water and there was a nice flow of water.
+On my 2nd day, I returned to a clean room... quite impressed and happy.  The 2nd night (my 3rd day) was a huge disappointment.  I was given one towel, my trash was not emptied, and my sheets were basically just thrown together.  There was a huge difference is the appearance and the incidentals this night.  This inconsistency bothers me a lot.  
+Another inconsistency, for me, were the front desk individuals.  While they responded to my questions and offered great directions, they never smiled or noticed me on arrival or departure.  They were too busy.  One girl was busy texting, and the guy just never looked up.  The young man, however, who was working the last evening of my trip was amazing......I was a bit hesitant about this hotel because some of the reviews on Tripadvisor mentioned dirt and bugs; I do not like either.  However, the hotel was booked for a conference where I was speaking, so my choice was rather non-existent.First of all, let me state that on arrival my room was spotless.  I checked every nook and cranny; I was totally impressed.  While the room was not fancy, it was clean and comfortable.  The bed was amazing, and I enjoyed the choice of firm and soft pillows.  There were many outlets which is often a challenge.  There was a microwave and refrigerator, too.  The shower had HOT water and there was a nice flow of water.On my 2nd day, I returned to a clean room... quite impressed and happy.  The 2nd night (my 3rd day) was a huge disappointment.  I was given one towel, my trash was not emptied, and my sheets were basically just thrown together.  There was a huge difference is the appearance and the incidentals this night.  This inconsistency bothers me a lot.  Another inconsistency, for me, were the front desk individuals.  While they responded to my questions and offered great directions, they never smiled or noticed me on arrival or departure.  They were too busy.  One girl was busy texting, and the guy just never looked up.  The young man, however, who was working the last evening of my trip was amazing... gave great directions... and honestly helped me locate the mall and print my boarding pass.  All the staff should be as accommodating... kudos to you!I did not partake of the breakfast, because when I arrived, it was quite crowded.  It's a super small area.  I have no idea what was offered, but the room was crowded.There are LOTS of restaurants within a few blocks... many choices!Do not depend on Wi-Fi, which is free.  It was more trouble than it was worth.  Super slow.I travel all the time, and it's the little things that make me want to return.  With so many choices for travelers, taking out trash, leaving towels, and a smile are not a lot of ask for.  Would I return, yes!  But I would check the room for towels and stuff before going to bed; no surprises in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r215980830-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215980830</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel...Great Stay</t>
+  </si>
+  <si>
+    <t>Our daughter reserved this hotel for us when we helped her and her fiance move to Texas. I have to say our stay was great. The room was very clean and spacious, and the beds were comfortable. I liked that each lamp by the beds had their own switch and the table lamp had an outlet on the base. The only thing I would change is having more towels in the pool area. I went to ask for more at the front desk and was told we had to use our room towels. I don't know that I agree with that, because one time we were at the pool, there were already towels out there for the guests to use. The continental breakfast was hot and plentiful. It was also very nice that we had the pool to ourselves the whole time we were there. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our daughter reserved this hotel for us when we helped her and her fiance move to Texas. I have to say our stay was great. The room was very clean and spacious, and the beds were comfortable. I liked that each lamp by the beds had their own switch and the table lamp had an outlet on the base. The only thing I would change is having more towels in the pool area. I went to ask for more at the front desk and was told we had to use our room towels. I don't know that I agree with that, because one time we were at the pool, there were already towels out there for the guests to use. The continental breakfast was hot and plentiful. It was also very nice that we had the pool to ourselves the whole time we were there. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r196180300-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196180300</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Love the Lamps</t>
+  </si>
+  <si>
+    <t>The room was great, very clean and comfortable.  The lamps in the room were wonderful. It may seem like a small thing, but the all lamps in the room had bright white light bulbs and switches and outlets on the base.  This is so convenient.  The room was also very quite even next to the freeway.  I will stay there again.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r179397079-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179397079</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>I have spent a week over here for business purposes. The rooms are refurbished and clean. The front desk staff was pleasant and helpful. There are plenty of restaurants and stores in the vicinity. The breakfast is good but can become boring if you are staying for a long period. This place is very good value for money.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r165826129-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165826129</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This place was great. I was here with a team and they made breakfast early so we can get out. The only problem that I had was the giant cockroaches that we found in some of our rooms. Not a really good thing to have at a hotel. Otherwise a great stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r158326465-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158326465</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Comfortable!</t>
+  </si>
+  <si>
+    <t>I spent 3 nights here on a business trip.  The hotel staff were very helpful.  (They gave me a recommendation for the El Tiempo Mexican Restaurant that was excellent.)  The property is easy to get to.  The bed was very comfortable with a good selection of pillows (soft, medium, and firm).  It was also surprisingly quiet for being next to a major highway.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r122854205-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122854205</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>traveling roadie</t>
+  </si>
+  <si>
+    <t>Stayed 17 days at this enjoyable hotel,great staff all around encounter somewhat problems with my roadies but the staff went out to be reasonably great. Thank you staff..a very nice and spacious rooms, breakfast room great. Pool ,,whirlpool. Great just great all around ..</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r121633729-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121633729</t>
+  </si>
+  <si>
+    <t>12/11/2011</t>
+  </si>
+  <si>
+    <t>What's with not heating hot tubs at Comfort Suites.</t>
+  </si>
+  <si>
+    <t>We arrive and ask about the hot tub.  If you have read my previous reviews, I always book hotels with hot tubs.  I was told by the manager that the a pipe had frozen and that it would be fixed the next day.  How can a pipe freeze in a heated hot tub?  Clearly, it was a lie to cover up that they didn't heat the hot tub unless someone asked.
+Well, there turned out to be a better option.  After the manager left, the young desk clerk was able to move us to a room with a hot tub in it for a very good price.  My budget was under a $100 a day and he was able to give me the room for an overall average of less than $100 a day.
+The room was fantastic.  The hot tub was spacious, the bed very comfortable, although the bedding smelled like urine.  I had the maids change out the bedding and the smell went away.  The breakfast was very good for the 3 days we were there.  
+The management had their hands full with a lots of people and smells.   When the desk clerk was moving my room, others came up to complain about smells.  This is why when we got in the hot tub room, just changing out the bedding resolved the issue.  We didn't want to move again.  The lobby was being fumagated with glade air freshners...We arrive and ask about the hot tub.  If you have read my previous reviews, I always book hotels with hot tubs.  I was told by the manager that the a pipe had frozen and that it would be fixed the next day.  How can a pipe freeze in a heated hot tub?  Clearly, it was a lie to cover up that they didn't heat the hot tub unless someone asked.Well, there turned out to be a better option.  After the manager left, the young desk clerk was able to move us to a room with a hot tub in it for a very good price.  My budget was under a $100 a day and he was able to give me the room for an overall average of less than $100 a day.The room was fantastic.  The hot tub was spacious, the bed very comfortable, although the bedding smelled like urine.  I had the maids change out the bedding and the smell went away.  The breakfast was very good for the 3 days we were there.  The management had their hands full with a lots of people and smells.   When the desk clerk was moving my room, others came up to complain about smells.  This is why when we got in the hot tub room, just changing out the bedding resolved the issue.  We didn't want to move again.  The lobby was being fumagated with glade air freshners that was giving everyone headaches.  Comfort suites should partner with febreeze.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We arrive and ask about the hot tub.  If you have read my previous reviews, I always book hotels with hot tubs.  I was told by the manager that the a pipe had frozen and that it would be fixed the next day.  How can a pipe freeze in a heated hot tub?  Clearly, it was a lie to cover up that they didn't heat the hot tub unless someone asked.
+Well, there turned out to be a better option.  After the manager left, the young desk clerk was able to move us to a room with a hot tub in it for a very good price.  My budget was under a $100 a day and he was able to give me the room for an overall average of less than $100 a day.
+The room was fantastic.  The hot tub was spacious, the bed very comfortable, although the bedding smelled like urine.  I had the maids change out the bedding and the smell went away.  The breakfast was very good for the 3 days we were there.  
+The management had their hands full with a lots of people and smells.   When the desk clerk was moving my room, others came up to complain about smells.  This is why when we got in the hot tub room, just changing out the bedding resolved the issue.  We didn't want to move again.  The lobby was being fumagated with glade air freshners...We arrive and ask about the hot tub.  If you have read my previous reviews, I always book hotels with hot tubs.  I was told by the manager that the a pipe had frozen and that it would be fixed the next day.  How can a pipe freeze in a heated hot tub?  Clearly, it was a lie to cover up that they didn't heat the hot tub unless someone asked.Well, there turned out to be a better option.  After the manager left, the young desk clerk was able to move us to a room with a hot tub in it for a very good price.  My budget was under a $100 a day and he was able to give me the room for an overall average of less than $100 a day.The room was fantastic.  The hot tub was spacious, the bed very comfortable, although the bedding smelled like urine.  I had the maids change out the bedding and the smell went away.  The breakfast was very good for the 3 days we were there.  The management had their hands full with a lots of people and smells.   When the desk clerk was moving my room, others came up to complain about smells.  This is why when we got in the hot tub room, just changing out the bedding resolved the issue.  We didn't want to move again.  The lobby was being fumagated with glade air freshners that was giving everyone headaches.  Comfort suites should partner with febreeze.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r118092772-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118092772</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Good place for a quick stay</t>
+  </si>
+  <si>
+    <t>Nice, simple rooms. Very comfy place to stay. The pool is small but refreshing. The workout room leaves a bit to be desired, but it works. All of the staff here is very nice &amp; helpful. Good place for a quick business trip.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +991,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1023,1410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_131.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_131.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r611530037-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>124460</t>
+  </si>
+  <si>
+    <t>611530037</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Great overall hotel</t>
+  </si>
+  <si>
+    <t>Stayed for five nights on vacation. Big, clean room with extremely friendly and helpful staff. They all made us feel like we were old friends. Every morning at breakfast, the food was fresh (even though we ate late) and the staff member working that area engaged us in friendly conversation. We will definitely stay there the next time we are in the area!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r600668403-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>600668403</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Good Rooms friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on a business trip to Houston, the property is nearby where my colleague lives. Good room, clean and  tidy very pleasant staff. I used the breakfast place just down the road which did great coffee and a wide variety of breakfast choices.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r554257586-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554257586</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Great value for $89!</t>
+  </si>
+  <si>
+    <t>Location is great...near the popular Vintage Park (dining, shopping, entertainment).  2 luxurious queen beds AND a very comfortable queen fold-out couch.  The breakfast had so many food choices.  - I did have to ask for linens for the fold-out and they would only give me 1 thin-ish blanket...they said it would mess up their linen count to give me another.  - The toilet flushes very loudly but we just made sure to keep the bathroom door closed.We will definitely stay here again!!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r529185899-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>124460</t>
-  </si>
-  <si>
     <t>529185899</t>
   </si>
   <si>
@@ -177,9 +240,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r488599484-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -219,6 +279,63 @@
     <t>Stayed here several nights and have no complaints. Motel itself was nice, clean with cheerful staff. The room was good, but bathtub showed wear and was in need of attention, however it was functional and clean. The signage needs some help. We arrived after dark, and the sign showing entrance was out, and only the exit sigh was lit. Entrance and exit was the same driveway, but I was not sure, and with traffic heavy and fast, I passed it on the first try, thinking there was another entrance. Had to circle back to enter. Would have had no problems in daylight though. Breakfast was adequate, but not great. Some equipment non functional, but no big deal. Several small things gave a less than great impression of the property. That said, we enjoyed our time there and would use again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r459450194-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459450194</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Needs some TLC</t>
+  </si>
+  <si>
+    <t>First impression was not that great: some of the lights on the main hotel sign were out (now reads 'COM Suites') and the road signage was severely damaged by a car crashing into it. The hotel is worn, but adequate. Morning breakfast includes: 1 chafing dish of hot items (eggs/ham one morning and biscuits/ sausage the next), three cereal options, waffle maker, juice, coffee, etc. Food was hot and bar was well maintained. Room had a slight musty smell, but was clean and roomy. Hotel staff was friendly with one exception, but that's the employee you remember. Overall, this hotel is average and priced on par with what it offers. A little maintenance and this hotel could be nice. Next time we will try another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Edward Y, Manager at Comfort Suites Willowbrook, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>First impression was not that great: some of the lights on the main hotel sign were out (now reads 'COM Suites') and the road signage was severely damaged by a car crashing into it. The hotel is worn, but adequate. Morning breakfast includes: 1 chafing dish of hot items (eggs/ham one morning and biscuits/ sausage the next), three cereal options, waffle maker, juice, coffee, etc. Food was hot and bar was well maintained. Room had a slight musty smell, but was clean and roomy. Hotel staff was friendly with one exception, but that's the employee you remember. Overall, this hotel is average and priced on par with what it offers. A little maintenance and this hotel could be nice. Next time we will try another place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r446241520-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446241520</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Wow!!!</t>
+  </si>
+  <si>
+    <t>What a bargain, this little gem will be my new go-to when in Houston. Large spacious rooms, great tv, a real coffee pot, shower worked excellently, and super comfortable bed. I spent one night here and it was the best night of sleep I've had in a long time. The entire place was spotless, staff was really top-notch, and the hot breakfast was pretty good. Everything about my stay amazed me considering the price-point. I've stayed in hotels that cost twice as much and they do not measure up to this place. Good job Comfort Suites, I'll be back. Thank you. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Edward Y, Manager at Comfort Suites Willowbrook, responded to this reviewResponded December 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2016</t>
+  </si>
+  <si>
+    <t>What a bargain, this little gem will be my new go-to when in Houston. Large spacious rooms, great tv, a real coffee pot, shower worked excellently, and super comfortable bed. I spent one night here and it was the best night of sleep I've had in a long time. The entire place was spotless, staff was really top-notch, and the hot breakfast was pretty good. Everything about my stay amazed me considering the price-point. I've stayed in hotels that cost twice as much and they do not measure up to this place. Good job Comfort Suites, I'll be back. Thank you. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r423608977-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -264,9 +381,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Edward Y, General Manager at Comfort Suites Willowbrook, responded to this reviewResponded June 15, 2016</t>
   </si>
   <si>
@@ -300,6 +414,54 @@
     <t>The grounds were well kept, the rooms were clean, the staff was helpful and friendly! The beds were very comfortable. Love all the updates going on! The property is clean and I thoroughly enjoyed my stay. I would and will be recommending this hotel to all of my friends, family and business associates! Thanks for the great stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r381276627-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381276627</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>great stay!!</t>
+  </si>
+  <si>
+    <t>We were lost looking for the hotel and when we called Felicia she gave us clear instructions on how to get there and even recommended a restaurant in the Vintage for me and my husband that night. She was wonderful and the hotel was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Edward Y, General Manager at Comfort Suites Willowbrook, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>We were lost looking for the hotel and when we called Felicia she gave us clear instructions on how to get there and even recommended a restaurant in the Vintage for me and my husband that night. She was wonderful and the hotel was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r380657207-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380657207</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>nice crews</t>
+  </si>
+  <si>
+    <t>All crews from housekeeping to manager are nice and helpful. I was late for breakfast, and the manager cooked me some fresh eggs &amp; sausages by himself. Excellent service. I will definitely back to this hotel whenever I trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Edward Y, General Manager at Comfort Suites Willowbrook, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>All crews from housekeeping to manager are nice and helpful. I was late for breakfast, and the manager cooked me some fresh eggs &amp; sausages by himself. Excellent service. I will definitely back to this hotel whenever I trip to Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r357416056-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -318,9 +480,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Edward Y, Manager at Comfort Suites Willowbrook, responded to this reviewResponded June 11, 2016</t>
   </si>
   <si>
@@ -369,6 +528,42 @@
     <t>Only had the privilege in staying for one ngt. The desk woman that checked us in was fabulous and had a great personality. She made sure our rooms &amp; any questions that we had were all taken care off. The rooms are really nice &amp; clean with the bathrooms that showed a little age but not bad.. The room &amp; bed made up for what the bathrooms was lacking for sure!! The only real thing that really could use a face lift would be the carpeting through out the place...Perhaps that is on there things to do list...The breakfast area was large and had all the items that one would want including a hand full of hot items to choose from. The price was real good for being close to the airport of DWH &amp; let's not forget all the restaurants to choose from.. If I'm in the area again, this will be my choice of hotel ..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r310161987-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310161987</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Lovely stay</t>
+  </si>
+  <si>
+    <t>Everything about this visit was excellent. Check in was speedy and the front desk person seemed happy we were there and was very knowledgeable about the area--very new to us. The room was well appointed and clean--so nice to have a microwave, refrigerator, and safe. There is also an exercise room and an outdoor pool. We left early in the morning to catch a flight--around 5:45--the front desk person bid us farewell with a bottle of water and a granola bar--wow, so simple, yet so appreciated with missing the buffet breakfast. You cannot go wrong with this hotel</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r295335799-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295335799</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>I have stayed here four times and cannot say enough about the hotel.  Clean, comfortable and close to lots of shopping and restaurants.  Don't miss Vally Ranch BBQ.  Jessica is at the front desk and a real gem.  She got me a perfect room</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r287376598-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -421,6 +616,39 @@
   </si>
   <si>
     <t>We recently stayed here for five days while visiting family.  Everything was clean with no problems.  The suite was very large and comfortable which we enjoyed, even though we were not there much.  Liked the coffee maker that had a small coffee pot instead of the ones that brew only one cup at a time.  There are many very good restaurants close by and easy to get to as well as a convenience store.  The hotel itself was in a convenient location.We extended our stay while there and had to change rooms because the place was booked up and our room had been reserved.  They kept our luggage in the office during the day we moved rooms.  We were moved to the jacuzzi suite.  Had a large jacuzzi in the middle of the room next to the bed which was kinda unexpected.  We were not excited about having to change rooms, but we had not made reservations for the duration of our stay so can not complain too much.  Be advised though, this place does book solid sometimes so reservations may be a good idea.  The breakfast was above average for a hotel.  Changed things up a little every day.  Nothing to get excited about but we ate there every morning with no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r247037733-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247037733</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Excellent Stay!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on New Year's Eve and New Year's day for her cousin's wedding in Cypress. The room was spacious and clean. A nice King suite for $92 a night (not bad considering the holiday). Microwave, refrigerator, sofa, new hdtv with over 100 channels (at least 12 movie channels) and complimentary breakfast. Breakfast included eggs, sausage, biscuits, waffles, yogurt, juice, coffee, bagels, fruit, and cereal. The gym was a bit small, but it's New Years and the only thing I was working out was my drinking my hand! No need for the gym.  I definitely recommend. This place is clean from top to bottom and everything worked properly. No complaints. Excellent location too, lots of restaurants and several deliver to the hotel. No problems with wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on New Year's Eve and New Year's day for her cousin's wedding in Cypress. The room was spacious and clean. A nice King suite for $92 a night (not bad considering the holiday). Microwave, refrigerator, sofa, new hdtv with over 100 channels (at least 12 movie channels) and complimentary breakfast. Breakfast included eggs, sausage, biscuits, waffles, yogurt, juice, coffee, bagels, fruit, and cereal. The gym was a bit small, but it's New Years and the only thing I was working out was my drinking my hand! No need for the gym.  I definitely recommend. This place is clean from top to bottom and everything worked properly. No complaints. Excellent location too, lots of restaurants and several deliver to the hotel. No problems with wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r232763117-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232763117</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First of all, they must have recently remodeled because from the moment I walked in to when I got to my room, everything was beautiful. Gentleman at the front desk was very sweet and even asked me on my way back to my car if I was pleased with my room. Our room was very clean, everyone was very friendly, and breakfast was awesome! Not just your typical continental either. Make your own waffles, sausage, eggs, and tons of options to please anyone. I would definitely come back! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r217669429-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
@@ -489,6 +717,45 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r189024977-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189024977</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Great Service!!!</t>
+  </si>
+  <si>
+    <t>We booked a total of 4 rooms for a family occasion and were pleasatly surprised. The front desk personnel were very very helpful, especially the gentlemen on the night shift. He went out of his way to make things easier for us. We had a slow draining sink in my room and informed the front desk in the morning, and it was taken care of promptly. The breakfast was adequate,</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r185497501-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185497501</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Decent place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here because it was the only hotel available close to the lone star college at the time I needed it.The staff was very kind and responsive and were eager to help.  The room was clean, its showing some age but the bed was comfortable and my room was equipped with a kitchen which I consider useful. I did not try the breakfast so I cannot give feedback on this.Now the downside:  the wifi on my room was non functional and considering I was in a business trip I really needed the access and I ended at the lobby looking for signal.There was one night when there was a power outage and the zone but the hotel did not have a power plant which made my morning uneasy, lucky I was that the water heater was gas operated.NOTE:  be sure to avoid leaving anything in your car,  someone's car window got broken and they got their cellphone and portable stolen (what a bummer).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stayed here because it was the only hotel available close to the lone star college at the time I needed it.The staff was very kind and responsive and were eager to help.  The room was clean, its showing some age but the bed was comfortable and my room was equipped with a kitchen which I consider useful. I did not try the breakfast so I cannot give feedback on this.Now the downside:  the wifi on my room was non functional and considering I was in a business trip I really needed the access and I ended at the lobby looking for signal.There was one night when there was a power outage and the zone but the hotel did not have a power plant which made my morning uneasy, lucky I was that the water heater was gas operated.NOTE:  be sure to avoid leaving anything in your car,  someone's car window got broken and they got their cellphone and portable stolen (what a bummer).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r179397079-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -538,6 +805,42 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r151009699-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151009699</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Clearly Updating This Property</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights, on a business trip.  The location is very easy to find.  There are plenty of restaurants and stores close by.  The hotel is in the middle of a massive remodel and it appears that they are really trying to freshen everything up.  The front desk staff was pleasant and helpful.  This is not a Hilton but then you are not paying the price for a Hilton.  My room was clean and updated.  The furniture is all new and my bed was comfortable.  Breakfast was suitable.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r147278440-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147278440</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>Low Cost, Good Value in NW Houston</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel in December 2012.  Very good value compared to the other name brand hotels in the area.  I usually stay at the Marriott or Hitlon Garden Inn, but this hotel was a much better price, and to my suprise, very nice.  The property is just finishing a remodel, but the staff was very freindly and the room was clean and quiet.  I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r122854205-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
@@ -598,6 +901,42 @@
   </si>
   <si>
     <t>Nice, simple rooms. Very comfy place to stay. The pool is small but refreshing. The workout room leaves a bit to be desired, but it works. All of the staff here is very nice &amp; helpful. Good place for a quick business trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r115767780-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115767780</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>Good, modern, clean, comfortable hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights on a trip to Houston to see relatives. The hotel was good, modern, clean and comfortable. The hotel is otherwise known as the "Comfort Suites Hwy 249 at Louetta" but if booking via an agent be sure to specify the exact address. We ended up being booked at the 'Comfort Suites, East Louetta road" which is a similar hotel but 12 miles away. We stayed there one night but were able to cancel the remaining two and book in here.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d124460-r16209640-Comfort_Suites_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16209640</t>
+  </si>
+  <si>
+    <t>05/19/2008</t>
+  </si>
+  <si>
+    <t>Boycott Comfort Suites</t>
+  </si>
+  <si>
+    <t>I stayed at the one at Willowbrook Mall. They gave wrong information in order to obtain the reservation. The follow up at the hotel and corporate level is absolutely horrible. They don't mind continuing to lie to you both in conversation and correspondence. Their indiffernce to the customer is just unbelievable.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
   </si>
 </sst>
 </file>
@@ -1189,21 +1528,21 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1231,7 +1570,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1240,34 +1579,34 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1278,7 +1617,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1294,7 +1633,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1303,49 +1642,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1361,7 +1690,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1370,49 +1699,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1428,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1437,43 +1762,45 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>91</v>
-      </c>
-      <c r="X7" t="s">
-        <v>92</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1816,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1498,49 +1825,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1556,7 +1877,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1565,43 +1886,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1617,7 +1938,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1626,39 +1947,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1674,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1683,39 +2014,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>119</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>120</v>
       </c>
-      <c r="L11" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -1731,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1740,45 +2081,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -1794,7 +2133,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1803,34 +2142,32 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1838,10 +2175,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -1857,7 +2198,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1866,45 +2207,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -1920,7 +2255,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1929,43 +2264,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -1981,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1990,41 +2331,35 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2032,7 +2367,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2048,7 +2383,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2057,49 +2392,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -2115,7 +2440,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2124,33 +2449,33 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
       <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2162,7 +2487,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
@@ -2178,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2187,41 +2512,35 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2229,7 +2548,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -2245,7 +2564,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2254,49 +2573,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -2312,7 +2621,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2321,37 +2630,33 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
         <v>3</v>
       </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -2363,7 +2668,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -2379,7 +2684,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2388,37 +2693,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2426,7 +2731,1106 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>230</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>290</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" t="s">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s">
+        <v>294</v>
+      </c>
+      <c r="L38" t="s">
+        <v>295</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>296</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38979</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>302</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
